--- a/All_Books.xlsx
+++ b/All_Books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t xml:space="preserve">ISBN</t>
   </si>
@@ -46,6 +46,177 @@
     <t xml:space="preserve">Adet</t>
   </si>
   <si>
+    <t xml:space="preserve">9786053837787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cingöz Recai Kral Faruk'un Elmasları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peyami Safa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genç Damla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789750719387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayvan Çiftliği</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Orwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Yayınları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789756902165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesur Yeni Dünya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldous Huxley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İthaki Yayınları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789750718533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789755705859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fareler Ve İnsanlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Steinbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sel Yayıncılık</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789755706849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bülbülü Öldürmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harper Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9789751001054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanrı Misafiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orhan Pamuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İnkılap Yayınevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5012345678900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutunamayanlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oğuz Atay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutena Yayınları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9786053480129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Şüphe Asla Uyumaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martı Yayınları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9786053327127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ay'a Yolculuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jules Verne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkiye İş Bankası Kültür Yayınları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
     <t xml:space="preserve">9786052982013</t>
   </si>
   <si>
@@ -55,87 +226,12 @@
     <t xml:space="preserve">Howard Hinton</t>
   </si>
   <si>
-    <t xml:space="preserve">Bilim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kırmızı Kedi Yayınları</t>
   </si>
   <si>
     <t xml:space="preserve">179</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9786053327127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ay'a Yolculuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jules Verne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Türkiye İş Bankası Kültür Yayınları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789750719387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayvan Çiftliği</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Orwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Yayınları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789756902165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesur Yeni Dünya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aldous Huxley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İthaki Yayınları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789750718533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">9786053757818</t>
   </si>
   <si>
@@ -146,54 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789755705859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fareler Ve İnsanlar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Steinbeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sel Yayıncılık</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789755706849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bülbülü Öldürmek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harper Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9789751001054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanrı Misafiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orhan Pamuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İnkılap Yayınevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
 </sst>
 </file>
@@ -291,16 +339,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.2348178137652"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7044534412955"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.08502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7004048582996"/>
@@ -370,30 +418,30 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>25</v>
@@ -413,36 +461,36 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>36</v>
@@ -462,16 +510,16 @@
         <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +533,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>45</v>
@@ -494,53 +542,122 @@
         <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
